--- a/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,39; 22,22</t>
+          <t>6,47; 21,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,93; 23,22</t>
+          <t>8,54; 23,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,54; 25,71</t>
+          <t>8,63; 27,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,27; 37,64</t>
+          <t>16,99; 37,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 22,95</t>
+          <t>7,42; 22,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 29,13</t>
+          <t>11,5; 29,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,04; 29,92</t>
+          <t>10,43; 30,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 18,27</t>
+          <t>4,02; 17,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,23; 18,87</t>
+          <t>8,65; 19,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,38; 23,23</t>
+          <t>11,32; 22,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,41; 24,43</t>
+          <t>11,43; 24,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,32; 25,73</t>
+          <t>12,46; 26,14</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 10,04</t>
+          <t>5,49; 9,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 12,75</t>
+          <t>7,23; 12,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,49</t>
+          <t>4,73; 9,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,26</t>
+          <t>5,65; 10,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,65</t>
+          <t>4,21; 8,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 12,74</t>
+          <t>7,3; 12,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,45</t>
+          <t>5,83; 10,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,29</t>
+          <t>4,46; 8,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 8,59</t>
+          <t>5,51; 8,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,81; 11,77</t>
+          <t>7,98; 12,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 8,96</t>
+          <t>5,83; 9,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 8,49</t>
+          <t>5,67; 8,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 11,41</t>
+          <t>4,03; 12,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 10,09</t>
+          <t>2,61; 9,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 6,12</t>
+          <t>0,93; 5,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,68</t>
+          <t>1,24; 5,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 8,03</t>
+          <t>2,15; 8,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 11,88</t>
+          <t>3,69; 12,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 11,61</t>
+          <t>4,05; 11,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 8,54</t>
+          <t>2,38; 8,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 8,43</t>
+          <t>3,74; 8,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 9,12</t>
+          <t>3,92; 9,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,36</t>
+          <t>2,97; 7,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,92</t>
+          <t>2,24; 5,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 10,1</t>
+          <t>6,37; 9,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,28; 11,48</t>
+          <t>7,21; 11,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,13; 8,62</t>
+          <t>5,1; 8,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,83</t>
+          <t>6,14; 9,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,65</t>
+          <t>4,91; 8,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,91; 12,83</t>
+          <t>8,03; 12,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 10,59</t>
+          <t>6,77; 10,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,81</t>
+          <t>4,6; 7,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 8,7</t>
+          <t>5,97; 8,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,38</t>
+          <t>8,19; 11,37</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,3; 8,95</t>
+          <t>6,28; 9,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,82; 8,27</t>
+          <t>6,0; 8,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,19%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,59; 22,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,95; 29,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,87; 30,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,22; 17,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,51; 22,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,17; 23,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,19; 24,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>17,48; 38,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,87; 19,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,49; 22,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,26; 23,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>12,08; 26,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>6,95%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 21,68</t>
+          <t>4,36; 8,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,54; 23,14</t>
+          <t>7,17; 13,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,63; 27,18</t>
+          <t>5,82; 10,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,99; 37,87</t>
+          <t>4,3; 7,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 22,49</t>
+          <t>5,51; 10,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,5; 29,6</t>
+          <t>7,09; 12,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,43; 30,51</t>
+          <t>4,97; 9,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 17,62</t>
+          <t>5,62; 10,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,65; 19,35</t>
+          <t>5,36; 8,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 22,91</t>
+          <t>8,03; 11,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,43; 24,27</t>
+          <t>5,85; 8,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,46; 26,14</t>
+          <t>5,55; 8,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,49; 9,9</t>
+          <t>2,35; 8,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 12,82</t>
+          <t>3,79; 11,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 9,17</t>
+          <t>4,07; 11,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 10,15</t>
+          <t>2,5; 9,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 8,63</t>
+          <t>4,29; 12,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,92</t>
+          <t>2,48; 9,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,83; 10,37</t>
+          <t>0,94; 5,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,32</t>
+          <t>1,32; 6,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,36</t>
+          <t>3,61; 8,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,98; 12,15</t>
+          <t>3,78; 9,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,83; 9,03</t>
+          <t>2,92; 7,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,75</t>
+          <t>2,4; 6,17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>7,15%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 12,12</t>
+          <t>4,96; 8,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 9,48</t>
+          <t>7,93; 12,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,72</t>
+          <t>6,55; 10,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,98</t>
+          <t>4,58; 7,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 8,77</t>
+          <t>6,3; 9,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 12,07</t>
+          <t>7,17; 11,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,05; 11,48</t>
+          <t>5,07; 8,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 8,41</t>
+          <t>6,36; 10,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,47</t>
+          <t>5,97; 8,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 9,3</t>
+          <t>8,28; 11,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,31</t>
+          <t>6,37; 8,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,74</t>
+          <t>6,05; 8,67</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>7,97%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,17%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,62%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,95%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>6,56%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>10,17%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>8,52%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>7,29%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>9,64%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>7,53%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>7,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>6,37; 9,98</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>7,21; 11,37</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>5,1; 8,47</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>6,14; 9,81</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>4,91; 8,51</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>8,03; 12,55</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>6,77; 10,68</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,6; 7,93</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>5,97; 8,71</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>8,19; 11,37</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>6,28; 9,04</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>6,0; 8,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
